--- a/odkx/app/config/tables/hh_mosquito_net/forms/hh_mosquito_net/hh_mosquito_net.xlsx
+++ b/odkx/app/config/tables/hh_mosquito_net/forms/hh_mosquito_net/hh_mosquito_net.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">55b. Alguém dormiu dentro desta rede na noite passada?</t>
   </si>
   <si>
-    <t xml:space="preserve">55b. Je, kunaye aliyelala ndani ya chandarua hiki usiku uliopita?</t>
+    <t xml:space="preserve">55b. Je, kuna aliyelala ndani ya chandarua hiki usiku uliopita?</t>
   </si>
   <si>
     <t xml:space="preserve">55c. Is the net being used for anything else other than sleeping under?</t>
@@ -519,7 +519,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -545,7 +545,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -560,17 +560,17 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,7 +650,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -669,10 +669,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,7 +832,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -851,16 +851,16 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,7 +988,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1007,11 +1007,11 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,7 +1060,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1075,14 +1075,14 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="35.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,7 +1312,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
